--- a/Project/PCA研究国债/中国国债/中国国债历年信息汇总/各项指标对应系数.xlsx
+++ b/Project/PCA研究国债/中国国债/中国国债历年信息汇总/各项指标对应系数.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="各项指标对应系数" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="3">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="5">
   <si>
     <t>第一主因子</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>第三主因子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -706,31 +714,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>三大主因子对利率期限结构的影响</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -770,17 +753,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>第一主因子</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -791,249 +763,52 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$O$1</c:f>
+              <c:f>各项指标对应系数!$H$3:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.210225954256229</c:v>
+                  <c:v>7.0260784784176064E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32606095319616402</c:v>
+                  <c:v>0.14448351623197317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33304454902976099</c:v>
+                  <c:v>0.17174216296521727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33104252837012399</c:v>
+                  <c:v>0.21915448790579428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32512023184131</c:v>
+                  <c:v>0.24632027622360783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32072368987118699</c:v>
+                  <c:v>0.28022413117410766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31998141351812598</c:v>
+                  <c:v>0.35811133725025024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28118402741969101</c:v>
+                  <c:v>0.31997210518997032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24421859617321301</c:v>
+                  <c:v>0.27859688167609786</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22197032511607401</c:v>
+                  <c:v>0.22883806860162886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19294844491378399</c:v>
+                  <c:v>0.18900243335716455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16939755166262799</c:v>
+                  <c:v>0.18542552274552232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.170267607365573</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.18743752049337201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>第二主因子</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$O$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-0.27969720479022903</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.25848291619893299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.20584919735577101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.18653590718260299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.155259605345866</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.13713352245013299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.111613074861022</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9811167484149894E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19715487070688101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26831923133200503</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37468051937861702</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43150820768582498</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.43226930452846302</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30534810273289198</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>第三主因子</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$O$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-0.843553391406896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.17203909291122199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3385284408751601E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13820251879487699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16758629374984099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.162504878205844</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17297579301032201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.165697607884084</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6361943122829294E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3845456163503E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.112775952799263</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.21663696579960401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.21072249705653601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.2263159236626295E-2</c:v>
+                  <c:v>0.20466116861319669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,13 +823,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="325704792"/>
-        <c:axId val="325702832"/>
+        <c:axId val="179966920"/>
+        <c:axId val="179967312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="325704792"/>
+        <c:axId val="179966920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325702832"/>
+        <c:crossAx val="179967312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325702832"/>
+        <c:axId val="179967312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +929,519 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325704792"/>
+        <c:crossAx val="179966920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>三大主因子对利率期限结构的影响</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第一主因子</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.210225954256229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32606095319616402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33304454902976099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33104252837012399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32512023184131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32072368987118699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31998141351812598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28118402741969101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24421859617321301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22197032511607401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19294844491378399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16939755166262799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.170267607365573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18743752049337201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第二主因子</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.27969720479022903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.25848291619893299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20584919735577101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18653590718260299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.155259605345866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13713352245013299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.111613074861022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9811167484149894E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19715487070688101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26831923133200503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37468051937861702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43150820768582498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43226930452846302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30534810273289198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第三主因子</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.843553391406896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17203909291122199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3385284408751601E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13820251879487699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16758629374984099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.162504878205844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17297579301032201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.165697607884084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6361943122829294E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3845456163503E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.112775952799263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.21663696579960401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.21072249705653601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2263159236626295E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="179968096"/>
+        <c:axId val="179968488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="179968096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179968488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179968488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179968096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,7 +1455,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1276,8 +1561,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1385,6 +1710,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1395,6 +1725,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1426,6 +1761,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1779,7 +2117,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2077,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2090,7 +2966,7 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2100,8 +2976,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.210225954256229</v>
       </c>
@@ -2111,8 +2993,15 @@
       <c r="C2">
         <v>-0.843553391406896</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="e">
+        <f>A2+B2*((1-EXP(-0.0609*F2))/(0.0609*F2))+C2*(((1-EXP(-0.0609*F2))/(0.0609*F2))-EXP(-0.0609*F2))</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.32606095319616402</v>
       </c>
@@ -2122,8 +3011,15 @@
       <c r="C3">
         <v>-0.17203909291122199</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="0">A3+B3*((1-EXP(-0.0609*F3))/(0.0609*F3))+C3*(((1-EXP(-0.0609*F3))/(0.0609*F3))-EXP(-0.0609*F3))</f>
+        <v>7.0260784784176064E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.33304454902976099</v>
       </c>
@@ -2133,8 +3029,15 @@
       <c r="C4">
         <v>9.3385284408751601E-2</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.14448351623197317</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.33104252837012399</v>
       </c>
@@ -2144,8 +3047,15 @@
       <c r="C5">
         <v>0.13820251879487699</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.17174216296521727</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.32512023184131</v>
       </c>
@@ -2155,8 +3065,15 @@
       <c r="C6">
         <v>0.16758629374984099</v>
       </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.21915448790579428</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.32072368987118699</v>
       </c>
@@ -2166,8 +3083,15 @@
       <c r="C7">
         <v>0.162504878205844</v>
       </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.24632027622360783</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.31998141351812598</v>
       </c>
@@ -2177,8 +3101,15 @@
       <c r="C8">
         <v>0.17297579301032201</v>
       </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.28022413117410766</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.28118402741969101</v>
       </c>
@@ -2188,8 +3119,15 @@
       <c r="C9">
         <v>0.165697607884084</v>
       </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.35811133725025024</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.24421859617321301</v>
       </c>
@@ -2199,8 +3137,15 @@
       <c r="C10">
         <v>9.6361943122829294E-2</v>
       </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.31997210518997032</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.22197032511607401</v>
       </c>
@@ -2210,8 +3155,15 @@
       <c r="C11">
         <v>2.3845456163503E-2</v>
       </c>
+      <c r="F11">
+        <v>84</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.27859688167609786</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.19294844491378399</v>
       </c>
@@ -2221,8 +3173,15 @@
       <c r="C12">
         <v>-0.112775952799263</v>
       </c>
+      <c r="F12">
+        <v>120</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.22883806860162886</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.16939755166262799</v>
       </c>
@@ -2232,8 +3191,15 @@
       <c r="C13">
         <v>-0.21663696579960401</v>
       </c>
+      <c r="F13">
+        <v>180</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.18900243335716455</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.170267607365573</v>
       </c>
@@ -2243,8 +3209,15 @@
       <c r="C14">
         <v>-0.21072249705653601</v>
       </c>
+      <c r="F14">
+        <v>240</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.18542552274552232</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.18743752049337201</v>
       </c>
@@ -2253,12 +3226,20 @@
       </c>
       <c r="C15">
         <v>7.2263159236626295E-2</v>
+      </c>
+      <c r="F15">
+        <v>360</v>
+      </c>
+      <c r="H15">
+        <f>A15+B15*((1-EXP(-0.0609*F15))/(0.0609*F15))+C15*(((1-EXP(-0.0609*F15))/(0.0609*F15))-EXP(-0.0609*F15))</f>
+        <v>0.20466116861319669</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2266,7 +3247,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
